--- a/xlsx/住房_intext.xlsx
+++ b/xlsx/住房_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="434">
   <si>
     <t>住房</t>
   </si>
@@ -35,15 +35,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AF%89%E7%89%A9</t>
   </si>
   <si>
-    <t>建築物</t>
+    <t>建筑物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AD%91%E7%89%A9</t>
   </si>
   <si>
-    <t>建筑物</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8E%E9%9F%A6%E6%96%AF%E5%B1%88%E8%8E%B1</t>
   </si>
   <si>
@@ -59,7 +56,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
   </si>
   <si>
-    <t>臺灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E5%B8%82</t>
@@ -71,13 +68,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%BA%97%E5%8D%80</t>
   </si>
   <si>
-    <t>新店區</t>
+    <t>新店区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>建築</t>
+    <t>建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%B4%BB</t>
@@ -101,25 +98,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%BF%E9%96%93</t>
   </si>
   <si>
-    <t>房間</t>
+    <t>房间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%B0%A3</t>
   </si>
   <si>
-    <t>天氣</t>
+    <t>天气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E7%89%A9</t>
   </si>
   <si>
-    <t>動物</t>
+    <t>动物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B6</t>
   </si>
   <si>
-    <t>戶</t>
+    <t>户</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E5%BA%AD</t>
@@ -131,37 +128,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%BE%A4%E9%AB%94</t>
   </si>
   <si>
-    <t>社會群體</t>
+    <t>社会群体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>組織</t>
+    <t>组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>個人</t>
+    <t>个人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%AA%9E%E6%96%B9%E8%A8%80</t>
   </si>
   <si>
-    <t>漢語方言</t>
+    <t>汉语方言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A2%E5%AE%B6%E8%A9%B1</t>
   </si>
   <si>
-    <t>客家話</t>
+    <t>客家话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%BA%9C%E8%A9%B1</t>
   </si>
   <si>
-    <t>廣府話</t>
+    <t>广府话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%BB%BA%E6%96%B9%E8%A8%80</t>
@@ -173,7 +170,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%80</t>
   </si>
   <si>
-    <t>門</t>
+    <t>门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E9%81%93</t>
@@ -197,7 +194,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E9%9A%B1</t>
   </si>
   <si>
-    <t>私隱</t>
+    <t>私隐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%A8</t>
@@ -215,13 +212,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8</t>
   </si>
   <si>
-    <t>風</t>
+    <t>风</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1</t>
   </si>
   <si>
-    <t>熱</t>
+    <t>热</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%92</t>
@@ -233,7 +230,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>氣候</t>
+    <t>气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6</t>
@@ -251,13 +248,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%B2%E9%A3%9F</t>
   </si>
   <si>
-    <t>進食</t>
+    <t>进食</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%8A%E6%88%B2</t>
   </si>
   <si>
-    <t>遊戲</t>
+    <t>游戏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%90%E6%B5%B4</t>
@@ -275,7 +272,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A2%E5%BB%B3</t>
   </si>
   <si>
-    <t>客廳</t>
+    <t>客厅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%B7%E5%B1%85%E5%AE%A4</t>
@@ -287,13 +284,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%9A%E6%88%BF</t>
   </si>
   <si>
-    <t>廚房</t>
+    <t>厨房</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%AF%E5%BB%B3</t>
   </si>
   <si>
-    <t>飯廳</t>
+    <t>饭厅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B4%E5%AE%A4</t>
@@ -305,37 +302,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%81%E6%89%80</t>
   </si>
   <si>
-    <t>廁所</t>
+    <t>厕所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%A5%E5%AE%A4</t>
   </si>
   <si>
-    <t>臥室</t>
+    <t>卧室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%84%E9%97%9C</t>
   </si>
   <si>
-    <t>玄關</t>
+    <t>玄关</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%93%E4%B8%AD%E6%A8%93</t>
   </si>
   <si>
-    <t>樓中樓</t>
+    <t>楼中楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%A3%E6%A8%93</t>
   </si>
   <si>
-    <t>閣樓</t>
+    <t>阁楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%B8%E6%88%BF</t>
   </si>
   <si>
-    <t>書房</t>
+    <t>书房</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%BD%9C%E5%AE%A4</t>
@@ -359,25 +356,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AD%E5%9C%92</t>
   </si>
   <si>
-    <t>庭園</t>
+    <t>庭园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%B1%E5%9C%92</t>
   </si>
   <si>
-    <t>花園</t>
+    <t>花园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E5%BA%AD%E5%8A%87%E9%99%A2</t>
   </si>
   <si>
-    <t>家庭劇院</t>
+    <t>家庭剧院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%8A%E6%A8%82%E5%A0%B4</t>
   </si>
   <si>
-    <t>遊樂場</t>
+    <t>游乐场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E8%BA%AB%E6%88%BF</t>
@@ -437,7 +434,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E6%A8%93</t>
   </si>
   <si>
-    <t>土樓</t>
+    <t>土楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%88%BF</t>
@@ -479,13 +476,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%BD%8F%E5%AE%85</t>
   </si>
   <si>
-    <t>社會住宅</t>
+    <t>社会住宅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>綠建築</t>
+    <t>绿建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E5%AE%85</t>
@@ -497,13 +494,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E5%90%88%E5%B1%8B</t>
   </si>
   <si>
-    <t>組合屋</t>
+    <t>组合屋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%90%B5%E7%9A%AE%E5%B1%8B</t>
   </si>
   <si>
-    <t>鐵皮屋</t>
+    <t>铁皮屋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B1%8B</t>
@@ -515,7 +512,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B2%E6%AC%84%E5%B1%8B</t>
   </si>
   <si>
-    <t>干欄屋</t>
+    <t>干栏屋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%AF%E7%9A%AE</t>
@@ -533,13 +530,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%B9%E5%B1%8B</t>
   </si>
   <si>
-    <t>樹屋</t>
+    <t>树屋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%A4%9A%E5%88%A9%E4%BA%9E%E5%BC%8F%E6%88%BF%E5%B1%8B</t>
   </si>
   <si>
-    <t>維多利亞式房屋</t>
+    <t>维多利亚式房屋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AA%91%E6%B4%9E</t>
@@ -557,25 +554,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E6%AB%83%E5%B1%8B</t>
   </si>
   <si>
-    <t>貨櫃屋</t>
+    <t>货柜屋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%91%E9%84%B0%E7%A4%BE%E5%8D%80</t>
   </si>
   <si>
-    <t>近鄰社區</t>
+    <t>近邻社区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%92%E8%97%9D</t>
   </si>
   <si>
-    <t>園藝</t>
+    <t>园艺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E5%8D%80</t>
   </si>
   <si>
-    <t>社區</t>
+    <t>社区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E9%80%9A</t>
@@ -587,19 +584,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E6%A0%A1</t>
   </si>
   <si>
-    <t>學校</t>
+    <t>学校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%A0%B4</t>
   </si>
   <si>
-    <t>商場</t>
+    <t>商场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%83%E6%89%80</t>
   </si>
   <si>
-    <t>會所</t>
+    <t>会所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%A0%82</t>
@@ -611,13 +608,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%BA%E5%BB%9F</t>
   </si>
   <si>
-    <t>寺廟</t>
+    <t>寺庙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%94%A2%E4%BB%A3%E7%90%86</t>
   </si>
   <si>
-    <t>地產代理</t>
+    <t>地产代理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%92%E5%BA%97</t>
@@ -629,7 +626,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%B0%E5%AE%85</t>
   </si>
   <si>
-    <t>陰宅</t>
+    <t>阴宅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%B6%E5%AE%85</t>
@@ -647,7 +644,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E5%B8%82%E8%A8%88%E7%95%AB</t>
   </si>
   <si>
-    <t>都市計畫</t>
+    <t>都市计画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E6%88%BF%E5%B1%8B</t>
@@ -683,7 +680,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%AF%93%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>公寓大廈</t>
+    <t>公寓大厦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%A6%E5%81%87%E5%B1%8B</t>
@@ -695,7 +692,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E5%B1%8B</t>
   </si>
   <si>
-    <t>組屋</t>
+    <t>组屋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%BF%E8%88%8D</t>
@@ -761,7 +758,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%85%E5%AE%B6%E5%B0%B1%E6%A5%AD</t>
   </si>
   <si>
-    <t>居家就業</t>
+    <t>居家就业</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Kitchenette</t>
@@ -803,13 +800,10 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9C%B2%E8%87%BA</t>
   </si>
   <si>
-    <t>露臺</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B0%B7%E5%BB%8A_(%E9%81%8A%E5%BB%8A)</t>
   </si>
   <si>
-    <t>簷廊 (遊廊)</t>
+    <t>簷廊 (游廊)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Terrace_(building)</t>
@@ -857,7 +851,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%87%E9%99%8D%E6%A9%9F</t>
   </si>
   <si>
-    <t>升降機</t>
+    <t>升降机</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Foyer</t>
@@ -869,13 +863,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%BB%B3</t>
   </si>
   <si>
-    <t>大廳</t>
+    <t>大厅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%BC%E5%BB%8A</t>
   </si>
   <si>
-    <t>涼廊</t>
+    <t>凉廊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%BA%AD</t>
@@ -911,7 +905,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%93%E6%A2%AF</t>
   </si>
   <si>
-    <t>樓梯</t>
+    <t>楼梯</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Vestibule_(architecture)</t>
@@ -935,7 +929,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A3%E5%B8%BD%E9%96%93</t>
   </si>
   <si>
-    <t>衣帽間</t>
+    <t>衣帽间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%B1%E6%9F%9C</t>
@@ -1031,7 +1025,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A3%E6%AB%83</t>
   </si>
   <si>
-    <t>衣櫃</t>
+    <t>衣柜</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Wine_cellar</t>
@@ -1043,7 +1037,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%85%8D%E9%9B%BB%E7%9B%A4</t>
   </si>
   <si>
-    <t>配電盤</t>
+    <t>配电盘</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Demarcation_point</t>
@@ -1109,7 +1103,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%AE%A4</t>
   </si>
   <si>
-    <t>溫室</t>
+    <t>温室</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Great_chamber</t>
@@ -1235,7 +1229,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%84%E6%9D%86</t>
   </si>
   <si>
-    <t>欄杆</t>
+    <t>栏杆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E8%8A%B1%E6%9D%BF</t>
@@ -1265,7 +1259,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%80_(%E5%BB%BA%E7%AF%89%E7%89%A9)</t>
   </si>
   <si>
-    <t>門 (建築物)</t>
+    <t>门 (建筑物)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%85%A7%E6%98%8E</t>
@@ -1295,13 +1289,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%B1%E9%A0%82</t>
   </si>
   <si>
-    <t>拱頂</t>
+    <t>拱顶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1313,7 +1307,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%8F%E5%AE%85</t>
@@ -1780,7 +1774,7 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -1806,10 +1800,10 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
         <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -1835,10 +1829,10 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
         <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -1864,10 +1858,10 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
         <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -1893,10 +1887,10 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
       </c>
       <c r="G8" t="n">
         <v>2</v>
@@ -1922,10 +1916,10 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
         <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -1951,10 +1945,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
       </c>
       <c r="G10" t="n">
         <v>10</v>
@@ -1980,10 +1974,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -2009,10 +2003,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -2038,10 +2032,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>2</v>
@@ -2067,10 +2061,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>3</v>
@@ -2096,10 +2090,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>2</v>
@@ -2125,10 +2119,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>2</v>
@@ -2154,10 +2148,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>5</v>
@@ -2183,10 +2177,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>4</v>
@@ -2212,10 +2206,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -2241,10 +2235,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -2270,10 +2264,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -2299,10 +2293,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -2328,10 +2322,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -2357,10 +2351,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -2386,10 +2380,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -2415,10 +2409,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>5</v>
@@ -2444,10 +2438,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>2</v>
@@ -2473,10 +2467,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>2</v>
@@ -2502,10 +2496,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2531,10 +2525,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2560,10 +2554,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2589,10 +2583,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2618,10 +2612,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2647,10 +2641,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2676,10 +2670,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2705,10 +2699,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2734,10 +2728,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>11</v>
@@ -2763,10 +2757,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>4</v>
@@ -2792,10 +2786,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2821,10 +2815,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -2850,10 +2844,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2879,10 +2873,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2908,10 +2902,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>4</v>
@@ -2937,10 +2931,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2966,10 +2960,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>3</v>
@@ -2995,10 +2989,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -3024,10 +3018,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>2</v>
@@ -3053,10 +3047,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -3082,10 +3076,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
@@ -3111,10 +3105,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3140,10 +3134,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3169,10 +3163,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>3</v>
@@ -3198,10 +3192,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>2</v>
@@ -3227,10 +3221,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -3256,10 +3250,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3285,10 +3279,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -3314,10 +3308,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3343,10 +3337,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3372,10 +3366,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>2</v>
@@ -3401,10 +3395,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3430,10 +3424,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3459,10 +3453,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -3488,10 +3482,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -3517,10 +3511,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>5</v>
@@ -3546,10 +3540,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>3</v>
@@ -3575,10 +3569,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3604,10 +3598,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3633,10 +3627,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -3662,10 +3656,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -3691,10 +3685,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3720,10 +3714,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>4</v>
@@ -3749,10 +3743,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3778,10 +3772,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>3</v>
@@ -3807,10 +3801,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3836,10 +3830,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>3</v>
@@ -3865,10 +3859,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -3894,10 +3888,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3923,10 +3917,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3952,10 +3946,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -3981,10 +3975,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -4010,10 +4004,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" t="s">
         <v>161</v>
-      </c>
-      <c r="F81" t="s">
-        <v>162</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4039,10 +4033,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
         <v>163</v>
-      </c>
-      <c r="F82" t="s">
-        <v>164</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4068,10 +4062,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" t="s">
         <v>165</v>
-      </c>
-      <c r="F83" t="s">
-        <v>166</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4097,10 +4091,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>166</v>
+      </c>
+      <c r="F84" t="s">
         <v>167</v>
-      </c>
-      <c r="F84" t="s">
-        <v>168</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4126,10 +4120,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>168</v>
+      </c>
+      <c r="F85" t="s">
         <v>169</v>
-      </c>
-      <c r="F85" t="s">
-        <v>170</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4155,10 +4149,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>170</v>
+      </c>
+      <c r="F86" t="s">
         <v>171</v>
-      </c>
-      <c r="F86" t="s">
-        <v>172</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -4184,10 +4178,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>172</v>
+      </c>
+      <c r="F87" t="s">
         <v>173</v>
-      </c>
-      <c r="F87" t="s">
-        <v>174</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4213,10 +4207,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>174</v>
+      </c>
+      <c r="F88" t="s">
         <v>175</v>
-      </c>
-      <c r="F88" t="s">
-        <v>176</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4242,10 +4236,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>176</v>
+      </c>
+      <c r="F89" t="s">
         <v>177</v>
-      </c>
-      <c r="F89" t="s">
-        <v>178</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4271,10 +4265,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>178</v>
+      </c>
+      <c r="F90" t="s">
         <v>179</v>
-      </c>
-      <c r="F90" t="s">
-        <v>180</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -4300,10 +4294,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>180</v>
+      </c>
+      <c r="F91" t="s">
         <v>181</v>
-      </c>
-      <c r="F91" t="s">
-        <v>182</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4329,10 +4323,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>182</v>
+      </c>
+      <c r="F92" t="s">
         <v>183</v>
-      </c>
-      <c r="F92" t="s">
-        <v>184</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4358,10 +4352,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>184</v>
+      </c>
+      <c r="F93" t="s">
         <v>185</v>
-      </c>
-      <c r="F93" t="s">
-        <v>186</v>
       </c>
       <c r="G93" t="n">
         <v>3</v>
@@ -4387,10 +4381,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>186</v>
+      </c>
+      <c r="F94" t="s">
         <v>187</v>
-      </c>
-      <c r="F94" t="s">
-        <v>188</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4416,10 +4410,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>188</v>
+      </c>
+      <c r="F95" t="s">
         <v>189</v>
-      </c>
-      <c r="F95" t="s">
-        <v>190</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4445,10 +4439,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>190</v>
+      </c>
+      <c r="F96" t="s">
         <v>191</v>
-      </c>
-      <c r="F96" t="s">
-        <v>192</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4474,10 +4468,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>192</v>
+      </c>
+      <c r="F97" t="s">
         <v>193</v>
-      </c>
-      <c r="F97" t="s">
-        <v>194</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4503,10 +4497,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>194</v>
+      </c>
+      <c r="F98" t="s">
         <v>195</v>
-      </c>
-      <c r="F98" t="s">
-        <v>196</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4532,10 +4526,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>196</v>
+      </c>
+      <c r="F99" t="s">
         <v>197</v>
-      </c>
-      <c r="F99" t="s">
-        <v>198</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4561,10 +4555,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>198</v>
+      </c>
+      <c r="F100" t="s">
         <v>199</v>
-      </c>
-      <c r="F100" t="s">
-        <v>200</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4590,10 +4584,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>200</v>
+      </c>
+      <c r="F101" t="s">
         <v>201</v>
-      </c>
-      <c r="F101" t="s">
-        <v>202</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4619,10 +4613,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>202</v>
+      </c>
+      <c r="F102" t="s">
         <v>203</v>
-      </c>
-      <c r="F102" t="s">
-        <v>204</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4648,10 +4642,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>204</v>
+      </c>
+      <c r="F103" t="s">
         <v>205</v>
-      </c>
-      <c r="F103" t="s">
-        <v>206</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4677,10 +4671,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>206</v>
+      </c>
+      <c r="F104" t="s">
         <v>207</v>
-      </c>
-      <c r="F104" t="s">
-        <v>208</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4706,10 +4700,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>208</v>
+      </c>
+      <c r="F105" t="s">
         <v>209</v>
-      </c>
-      <c r="F105" t="s">
-        <v>210</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4735,10 +4729,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>210</v>
+      </c>
+      <c r="F106" t="s">
         <v>211</v>
-      </c>
-      <c r="F106" t="s">
-        <v>212</v>
       </c>
       <c r="G106" t="n">
         <v>3</v>
@@ -4764,10 +4758,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>212</v>
+      </c>
+      <c r="F107" t="s">
         <v>213</v>
-      </c>
-      <c r="F107" t="s">
-        <v>214</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4793,10 +4787,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>214</v>
+      </c>
+      <c r="F108" t="s">
         <v>215</v>
-      </c>
-      <c r="F108" t="s">
-        <v>216</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4822,10 +4816,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>216</v>
+      </c>
+      <c r="F109" t="s">
         <v>217</v>
-      </c>
-      <c r="F109" t="s">
-        <v>218</v>
       </c>
       <c r="G109" t="n">
         <v>2</v>
@@ -4851,10 +4845,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>218</v>
+      </c>
+      <c r="F110" t="s">
         <v>219</v>
-      </c>
-      <c r="F110" t="s">
-        <v>220</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4880,10 +4874,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>132</v>
+      </c>
+      <c r="F111" t="s">
         <v>133</v>
-      </c>
-      <c r="F111" t="s">
-        <v>134</v>
       </c>
       <c r="G111" t="n">
         <v>5</v>
@@ -4909,10 +4903,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>220</v>
+      </c>
+      <c r="F112" t="s">
         <v>221</v>
-      </c>
-      <c r="F112" t="s">
-        <v>222</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4938,10 +4932,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>222</v>
+      </c>
+      <c r="F113" t="s">
         <v>223</v>
-      </c>
-      <c r="F113" t="s">
-        <v>224</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4967,10 +4961,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>224</v>
+      </c>
+      <c r="F114" t="s">
         <v>225</v>
-      </c>
-      <c r="F114" t="s">
-        <v>226</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4996,10 +4990,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>226</v>
+      </c>
+      <c r="F115" t="s">
         <v>227</v>
-      </c>
-      <c r="F115" t="s">
-        <v>228</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5025,10 +5019,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>228</v>
+      </c>
+      <c r="F116" t="s">
         <v>229</v>
-      </c>
-      <c r="F116" t="s">
-        <v>230</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5054,10 +5048,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>230</v>
+      </c>
+      <c r="F117" t="s">
         <v>231</v>
-      </c>
-      <c r="F117" t="s">
-        <v>232</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -5083,10 +5077,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>232</v>
+      </c>
+      <c r="F118" t="s">
         <v>233</v>
-      </c>
-      <c r="F118" t="s">
-        <v>234</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -5112,10 +5106,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>234</v>
+      </c>
+      <c r="F119" t="s">
         <v>235</v>
-      </c>
-      <c r="F119" t="s">
-        <v>236</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5141,10 +5135,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>236</v>
+      </c>
+      <c r="F120" t="s">
         <v>237</v>
-      </c>
-      <c r="F120" t="s">
-        <v>238</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5170,10 +5164,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>238</v>
+      </c>
+      <c r="F121" t="s">
         <v>239</v>
-      </c>
-      <c r="F121" t="s">
-        <v>240</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -5199,10 +5193,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>240</v>
+      </c>
+      <c r="F122" t="s">
         <v>241</v>
-      </c>
-      <c r="F122" t="s">
-        <v>242</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -5228,10 +5222,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>242</v>
+      </c>
+      <c r="F123" t="s">
         <v>243</v>
-      </c>
-      <c r="F123" t="s">
-        <v>244</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -5257,10 +5251,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>244</v>
+      </c>
+      <c r="F124" t="s">
         <v>245</v>
-      </c>
-      <c r="F124" t="s">
-        <v>246</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5286,10 +5280,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>246</v>
+      </c>
+      <c r="F125" t="s">
         <v>247</v>
-      </c>
-      <c r="F125" t="s">
-        <v>248</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5315,10 +5309,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>248</v>
+      </c>
+      <c r="F126" t="s">
         <v>249</v>
-      </c>
-      <c r="F126" t="s">
-        <v>250</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -5344,10 +5338,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>250</v>
+      </c>
+      <c r="F127" t="s">
         <v>251</v>
-      </c>
-      <c r="F127" t="s">
-        <v>252</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -5373,10 +5367,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>252</v>
+      </c>
+      <c r="F128" t="s">
         <v>253</v>
-      </c>
-      <c r="F128" t="s">
-        <v>254</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5402,10 +5396,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>254</v>
+      </c>
+      <c r="F129" t="s">
         <v>255</v>
-      </c>
-      <c r="F129" t="s">
-        <v>256</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5431,10 +5425,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>256</v>
+      </c>
+      <c r="F130" t="s">
         <v>257</v>
-      </c>
-      <c r="F130" t="s">
-        <v>258</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -5460,10 +5454,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>258</v>
+      </c>
+      <c r="F131" t="s">
         <v>259</v>
-      </c>
-      <c r="F131" t="s">
-        <v>260</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -5489,10 +5483,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F132" t="s">
-        <v>262</v>
+        <v>109</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5518,10 +5512,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F133" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5547,10 +5541,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F134" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5576,10 +5570,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F135" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G135" t="n">
         <v>2</v>
@@ -5605,10 +5599,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F136" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5634,10 +5628,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F137" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -5663,10 +5657,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F138" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
@@ -5692,10 +5686,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F139" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G139" t="n">
         <v>7</v>
@@ -5721,10 +5715,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F140" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5750,10 +5744,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F141" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5779,10 +5773,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F142" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5808,10 +5802,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F143" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G143" t="n">
         <v>2</v>
@@ -5837,10 +5831,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F144" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5866,10 +5860,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F145" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G145" t="n">
         <v>2</v>
@@ -5895,10 +5889,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F146" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -5924,10 +5918,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F147" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5953,10 +5947,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F148" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5982,10 +5976,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F149" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -6011,10 +6005,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F150" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6040,10 +6034,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F151" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6069,10 +6063,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F152" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6098,10 +6092,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F153" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6127,10 +6121,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F154" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6156,10 +6150,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F155" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6185,10 +6179,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F156" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6214,10 +6208,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F157" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6243,10 +6237,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F158" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G158" t="n">
         <v>2</v>
@@ -6272,10 +6266,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F159" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -6301,10 +6295,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F160" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6330,10 +6324,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F161" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6359,10 +6353,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F162" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6388,10 +6382,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F163" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6417,10 +6411,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F164" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G164" t="n">
         <v>2</v>
@@ -6446,10 +6440,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F165" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -6475,10 +6469,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F166" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -6504,10 +6498,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F167" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G167" t="n">
         <v>2</v>
@@ -6533,10 +6527,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F168" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G168" t="n">
         <v>2</v>
@@ -6562,10 +6556,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F169" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G169" t="n">
         <v>2</v>
@@ -6591,10 +6585,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F170" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6620,10 +6614,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F171" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6649,10 +6643,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F172" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6678,10 +6672,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F173" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6707,10 +6701,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F174" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6736,10 +6730,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F175" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6765,10 +6759,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F176" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6794,10 +6788,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F177" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6823,10 +6817,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F178" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6852,10 +6846,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F179" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6881,10 +6875,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F180" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6910,10 +6904,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F181" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6939,10 +6933,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F182" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6968,10 +6962,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F183" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6997,10 +6991,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F184" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G184" t="n">
         <v>2</v>
@@ -7026,10 +7020,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F185" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7055,10 +7049,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F186" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G186" t="n">
         <v>2</v>
@@ -7084,10 +7078,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F187" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7113,10 +7107,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F188" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G188" t="n">
         <v>2</v>
@@ -7142,10 +7136,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F189" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7171,10 +7165,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F190" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G190" t="n">
         <v>2</v>
@@ -7200,10 +7194,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F191" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G191" t="n">
         <v>2</v>
@@ -7229,10 +7223,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F192" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7258,10 +7252,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F193" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7287,10 +7281,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F194" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G194" t="n">
         <v>2</v>
@@ -7316,10 +7310,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F195" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G195" t="n">
         <v>2</v>
@@ -7345,10 +7339,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F196" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G196" t="n">
         <v>2</v>
@@ -7374,10 +7368,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F197" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7403,10 +7397,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F198" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7432,10 +7426,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F199" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7461,10 +7455,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F200" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7490,10 +7484,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F201" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7519,10 +7513,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F202" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7548,10 +7542,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F203" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G203" t="n">
         <v>2</v>
@@ -7577,10 +7571,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F204" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7606,10 +7600,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F205" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7635,10 +7629,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F206" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7664,10 +7658,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F207" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G207" t="n">
         <v>2</v>
@@ -7693,10 +7687,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F208" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7722,10 +7716,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F209" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7751,10 +7745,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F210" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7780,10 +7774,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F211" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7809,10 +7803,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F212" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -7838,10 +7832,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F213" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -7867,10 +7861,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F214" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -7896,10 +7890,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F215" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G215" t="n">
         <v>3</v>
@@ -7925,10 +7919,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F216" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -7954,10 +7948,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F217" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -7983,10 +7977,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F218" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G218" t="n">
         <v>7</v>
@@ -8012,10 +8006,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>431</v>
+      </c>
+      <c r="F219" t="s">
         <v>433</v>
-      </c>
-      <c r="F219" t="s">
-        <v>435</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
